--- a/public/sample/sample_extra_acc.xlsx
+++ b/public/sample/sample_extra_acc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bluewolf/bluewolf/public/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76586CD3-D0A5-9B46-BE59-C590148DFC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65831E5-E0AA-6C49-A515-E9166D619BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11940" yWindow="-15860" windowWidth="51200" windowHeight="28300" xr2:uid="{FB7BF42F-579A-9746-B645-9CE95C1A21AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27220" xr2:uid="{FB7BF42F-579A-9746-B645-9CE95C1A21AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,9 +316,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -675,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,16 +687,7 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -715,16 +705,7 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,19 +714,10 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,31 +726,10 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -796,6 +747,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,23 +783,41 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1150,7 +1137,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1166,173 +1153,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="40" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:24" ht="40" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:24" ht="40" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="44" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="43" t="s">
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
       <c r="W3" s="2"/>
       <c r="X3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="40" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="40" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
         <f>D5/1.1</f>
         <v>0</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="37">
         <f>SUM(I5:L5)</f>
         <v>0</v>
       </c>
@@ -1342,7 +1329,7 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="38">
         <f>G5-H5</f>
         <v>0</v>
       </c>
@@ -1352,10 +1339,10 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="31">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="37">
         <f>SUM(N5:O5,Q5:R5)</f>
         <v>0</v>
       </c>
@@ -1368,39 +1355,39 @@
       <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="38">
         <f>P5/1.1</f>
         <v>0</v>
       </c>
-      <c r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
         <v>0</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="40" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36">
         <f t="shared" ref="E6:E31" si="0">D6/1.1</f>
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="37">
         <f t="shared" ref="F6:F31" si="1">SUM(I6:L6)</f>
         <v>0</v>
       </c>
@@ -1410,7 +1397,7 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="38">
         <f t="shared" ref="I6:I31" si="2">G6-H6</f>
         <v>0</v>
       </c>
@@ -1420,10 +1407,10 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="31">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="37">
         <f t="shared" ref="M6:M31" si="3">SUM(N6:O6,Q6:R6)</f>
         <v>0</v>
       </c>
@@ -1436,39 +1423,39 @@
       <c r="P6" s="3">
         <v>0</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="38">
         <f t="shared" ref="Q6:Q31" si="4">P6/1.1</f>
         <v>0</v>
       </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
         <v>0</v>
       </c>
       <c r="T6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="40" customHeight="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1478,7 +1465,7 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1488,10 +1475,10 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="31">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1504,39 +1491,39 @@
       <c r="P7" s="3">
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
         <v>0</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="40" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1546,7 +1533,7 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1556,10 +1543,10 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1572,175 +1559,175 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
         <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="40" customHeight="1" thickBot="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="27">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27">
-        <v>0</v>
-      </c>
-      <c r="L9" s="29">
-        <v>0</v>
-      </c>
-      <c r="M9" s="32">
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="27">
-        <v>0</v>
-      </c>
-      <c r="O9" s="27">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R9" s="29">
-        <v>0</v>
-      </c>
-      <c r="S9" s="25">
-        <v>0</v>
-      </c>
-      <c r="T9" s="27">
-        <v>0</v>
-      </c>
-      <c r="U9" s="29">
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="40" customHeight="1" thickTop="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="22">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18">
-        <v>0</v>
-      </c>
-      <c r="T10" s="20">
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="40" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1750,7 +1737,7 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1760,10 +1747,10 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="31">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1776,39 +1763,39 @@
       <c r="P11" s="3">
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R11" s="8">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
         <v>0</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="40" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1818,7 +1805,7 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1828,10 +1815,10 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="31">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1844,39 +1831,39 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
         <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="40" customHeight="1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1886,7 +1873,7 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1896,10 +1883,10 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="31">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1912,175 +1899,175 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
         <v>0</v>
       </c>
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="40" customHeight="1" thickBot="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="25">
-        <v>0</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="27">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0</v>
-      </c>
-      <c r="L14" s="29">
-        <v>0</v>
-      </c>
-      <c r="M14" s="32">
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="27">
-        <v>0</v>
-      </c>
-      <c r="O14" s="27">
-        <v>0</v>
-      </c>
-      <c r="P14" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="30">
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="29">
-        <v>0</v>
-      </c>
-      <c r="S14" s="25">
-        <v>0</v>
-      </c>
-      <c r="T14" s="27">
-        <v>0</v>
-      </c>
-      <c r="U14" s="29">
+      <c r="R14" s="18">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="40" customHeight="1" thickTop="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="20">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="33">
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <v>0</v>
-      </c>
-      <c r="P15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="23">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="22">
-        <v>0</v>
-      </c>
-      <c r="S15" s="18">
-        <v>0</v>
-      </c>
-      <c r="T15" s="20">
-        <v>0</v>
-      </c>
-      <c r="U15" s="22">
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="40" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2090,7 +2077,7 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2100,10 +2087,10 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="31">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2116,39 +2103,39 @@
       <c r="P16" s="3">
         <v>0</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="8">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
         <v>0</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="40" customHeight="1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2158,7 +2145,7 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2168,10 +2155,10 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="31">
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2184,39 +2171,39 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
         <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="40" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2226,7 +2213,7 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2236,10 +2223,10 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="31">
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2252,175 +2239,175 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
         <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="40" customHeight="1" thickBot="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="27">
-        <v>0</v>
-      </c>
-      <c r="K19" s="27">
-        <v>0</v>
-      </c>
-      <c r="L19" s="29">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="27">
-        <v>0</v>
-      </c>
-      <c r="O19" s="27">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30">
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="29">
-        <v>0</v>
-      </c>
-      <c r="S19" s="25">
-        <v>0</v>
-      </c>
-      <c r="T19" s="27">
-        <v>0</v>
-      </c>
-      <c r="U19" s="29">
+      <c r="R19" s="18">
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0</v>
+      </c>
+      <c r="T19" s="17">
+        <v>0</v>
+      </c>
+      <c r="U19" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="40" customHeight="1" thickTop="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="33">
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="23">
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="22">
-        <v>0</v>
-      </c>
-      <c r="S20" s="18">
-        <v>0</v>
-      </c>
-      <c r="T20" s="20">
-        <v>0</v>
-      </c>
-      <c r="U20" s="22">
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="40" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2430,7 +2417,7 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2440,10 +2427,10 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="31">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2456,39 +2443,39 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="8">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
         <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="40" customHeight="1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2498,7 +2485,7 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2508,10 +2495,10 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="31">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2524,39 +2511,39 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="40" customHeight="1">
-      <c r="A23" s="40"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2566,7 +2553,7 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2576,10 +2563,10 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="31">
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2592,175 +2579,175 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="8">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
         <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="40" customHeight="1" thickBot="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="27">
-        <v>0</v>
-      </c>
-      <c r="K24" s="27">
-        <v>0</v>
-      </c>
-      <c r="L24" s="29">
-        <v>0</v>
-      </c>
-      <c r="M24" s="32">
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N24" s="27">
-        <v>0</v>
-      </c>
-      <c r="O24" s="27">
-        <v>0</v>
-      </c>
-      <c r="P24" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="30">
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="29">
-        <v>0</v>
-      </c>
-      <c r="S24" s="25">
-        <v>0</v>
-      </c>
-      <c r="T24" s="27">
-        <v>0</v>
-      </c>
-      <c r="U24" s="29">
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0</v>
+      </c>
+      <c r="U24" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="40" customHeight="1" thickTop="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="20">
-        <v>0</v>
-      </c>
-      <c r="K25" s="20">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="33">
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N25" s="20">
-        <v>0</v>
-      </c>
-      <c r="O25" s="20">
-        <v>0</v>
-      </c>
-      <c r="P25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="23">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="22">
-        <v>0</v>
-      </c>
-      <c r="S25" s="18">
-        <v>0</v>
-      </c>
-      <c r="T25" s="20">
-        <v>0</v>
-      </c>
-      <c r="U25" s="22">
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="40" customHeight="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2770,7 +2757,7 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2780,10 +2767,10 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="31">
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2796,39 +2783,39 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R26" s="8">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
         <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="40" customHeight="1">
-      <c r="A27" s="40"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2838,7 +2825,7 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2848,10 +2835,10 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="31">
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2864,39 +2851,39 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R27" s="8">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
         <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="40" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2906,7 +2893,7 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2916,10 +2903,10 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="31">
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2932,231 +2919,231 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="8">
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
         <v>0</v>
       </c>
       <c r="T28" s="3">
         <v>0</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="40" customHeight="1" thickBot="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="25">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27">
-        <v>0</v>
-      </c>
-      <c r="I29" s="28">
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="27">
-        <v>0</v>
-      </c>
-      <c r="K29" s="27">
-        <v>0</v>
-      </c>
-      <c r="L29" s="29">
-        <v>0</v>
-      </c>
-      <c r="M29" s="32">
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N29" s="27">
-        <v>0</v>
-      </c>
-      <c r="O29" s="27">
-        <v>0</v>
-      </c>
-      <c r="P29" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="30">
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R29" s="29">
-        <v>0</v>
-      </c>
-      <c r="S29" s="25">
-        <v>0</v>
-      </c>
-      <c r="T29" s="27">
-        <v>0</v>
-      </c>
-      <c r="U29" s="29">
+      <c r="R29" s="18">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="40" customHeight="1" thickTop="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="18">
-        <v>0</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="20">
-        <v>0</v>
-      </c>
-      <c r="H30" s="20">
-        <v>0</v>
-      </c>
-      <c r="I30" s="21">
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="20">
-        <v>0</v>
-      </c>
-      <c r="K30" s="20">
-        <v>0</v>
-      </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="33">
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N30" s="20">
-        <v>0</v>
-      </c>
-      <c r="O30" s="20">
-        <v>0</v>
-      </c>
-      <c r="P30" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="23">
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R30" s="22">
-        <v>0</v>
-      </c>
-      <c r="S30" s="18">
-        <v>0</v>
-      </c>
-      <c r="T30" s="20">
-        <v>0</v>
-      </c>
-      <c r="U30" s="22">
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="40" customHeight="1" thickBot="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="12">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="14">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0</v>
-      </c>
-      <c r="I31" s="15">
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="14">
-        <v>0</v>
-      </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="34">
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N31" s="14">
-        <v>0</v>
-      </c>
-      <c r="O31" s="14">
-        <v>0</v>
-      </c>
-      <c r="P31" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="10">
-        <v>0</v>
-      </c>
-      <c r="S31" s="12">
-        <v>0</v>
-      </c>
-      <c r="T31" s="14">
-        <v>0</v>
-      </c>
-      <c r="U31" s="10">
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="B32" s="11"/>
+      <c r="B32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
